--- a/simple_test_result.xlsx
+++ b/simple_test_result.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TS_0701" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,13 +17,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="[hh]:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,19 +30,36 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3F2FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF3E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F5E9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -50,23 +67,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,10 +457,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -443,317 +469,2146 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>interview_date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>activity</t>
+          <t>applicant_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>job_code</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>activity_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>room_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>start_time</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>end_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>job_code</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>interview_date</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>duration_min</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>group_number</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>group_size</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>JOB01_001</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-01</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_001</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-01</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_005</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실A</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-02</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_002</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-02</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_001</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>토론면접</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45839.39166666667</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45839.40555555555</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>토론면접실3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>JOB01</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-01</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_002</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-01</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_003</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-01</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_004</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-01</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_005</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-01</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_006</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-01</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_012</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-03</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_011</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-03</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_007</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실A</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-04</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_011</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-05</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_012</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.4027777777777778</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-04</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_010</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-05</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_002</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실A</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-06</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_003</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-07</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_005</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-06</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_007</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-02</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_008</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-02</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_009</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-02</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_010</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-02</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_011</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-02</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_012</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>토론면접</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>토론면접-02</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_004</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-07</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_006</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-08</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_003</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-09</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_004</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실A</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-08</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_006</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-09</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_007</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0.4340277777777778</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-10</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_008</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>0.4409722222222222</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-10</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_010</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실A</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>0.4409722222222222</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-11</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_009</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>0.4340277777777778</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-11</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_008</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>발표준비</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>0.4409722222222222</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>발표준비-12</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>JOB01_009</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>JOB01</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>발표면접</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>0.4409722222222222</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>발표면접-12</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="10.8" customWidth="1" min="3" max="3"/>
+    <col width="10.8" customWidth="1" min="4" max="4"/>
+    <col width="10.8" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>발표면접실A</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>발표면접실B</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>발표준비실</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>토론면접실B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
         <is>
           <t>JOB01_001</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>발표준비</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45839.37847222222</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45839.38194444445</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>발표준비실2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>JOB01</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>09:05</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_005</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>JOB01_001</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>발표면접</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45839.38333333333</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45839.39027777778</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>발표면접실3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>JOB01</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>09:10</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_005</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_005</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_001</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>JOB01_002</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>토론면접</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45839.38819444444</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45839.40208333333</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>토론면접실1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>JOB01</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    </row>
+    <row r="6" ht="90" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_012</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_001
+JOB01_002
+JOB01_003
+JOB01_004
+JOB01_005
+JOB01_006</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="90" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_012</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_001
+JOB01_002
+JOB01_003
+JOB01_004
+JOB01_005
+JOB01_006</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="90" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_012</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>JOB01_011</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_001
+JOB01_002
+JOB01_003
+JOB01_004
+JOB01_005
+JOB01_006</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="90" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_007</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_011</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>JOB01_012</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_001
+JOB01_002
+JOB01_003
+JOB01_004
+JOB01_005
+JOB01_006</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="90" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_007</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_011</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_001
+JOB01_002
+JOB01_003
+JOB01_004
+JOB01_005
+JOB01_006</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="90" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_007</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_011</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>JOB01_010</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_001
+JOB01_002
+JOB01_003
+JOB01_004
+JOB01_005
+JOB01_006</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="90" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>JOB01_002</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>발표준비</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45839.375</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45839.37847222222</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>발표준비실2</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>JOB01</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_003</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>JOB01_005</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_007
+JOB01_008
+JOB01_009
+JOB01_010
+JOB01_011
+JOB01_012</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="90" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>09:55</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>JOB01_002</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>발표면접</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45839.37986111111</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>45839.38680555556</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>발표면접실1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>JOB01</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>JOB01_003</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>토론면접</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>45839.40555555555</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>45839.41944444444</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>토론면접실3</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>JOB01</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>JOB01_004</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_007
+JOB01_008
+JOB01_009
+JOB01_010
+JOB01_011
+JOB01_012</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="90" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_002</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>JOB01_003</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>발표준비</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>45839.38194444445</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>45839.38541666666</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>발표준비실2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>JOB01</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>JOB01_006</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_007
+JOB01_008
+JOB01_009
+JOB01_010
+JOB01_011
+JOB01_012</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="90" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_004</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_006</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>JOB01_003</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>발표면접</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>45839.39027777778</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>45839.39722222222</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>발표면접실3</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>JOB01</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>45839</v>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_007
+JOB01_008
+JOB01_009
+JOB01_010
+JOB01_011
+JOB01_012</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="90" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_004</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_006</t>
+        </is>
+      </c>
+      <c r="E16" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_007
+JOB01_008
+JOB01_009
+JOB01_010
+JOB01_011
+JOB01_012</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="90" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_004</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_006</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>JOB01_007
+JOB01_008
+JOB01_009
+JOB01_010
+JOB01_011
+JOB01_012</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_010</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_008</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>JOB01_007</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_010</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_008</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>JOB01_009</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_010</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_008</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_009</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>JOB01_008</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_009</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_009</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
       </c>
     </row>
   </sheetData>
